--- a/PHANTOM_VCU/VCU_LAYOUT_BOM.xlsx
+++ b/PHANTOM_VCU/VCU_LAYOUT_BOM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7B4AEE5-78B4-4B36-A1F3-EBD7D047A35D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E6BA893-EF64-46CD-B89D-3E325B3F1F74}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="2190" windowWidth="15375" windowHeight="8325" xr2:uid="{CE23DC8F-C393-4EC0-9547-4E5CC0969DFA}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="8325" xr2:uid="{367040A1-F005-44F7-9D54-5D92937B574F}"/>
   </bookViews>
   <sheets>
     <sheet name="VCU_LAYOUT_BOM" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="248">
   <si>
     <t>Comment</t>
   </si>
@@ -540,6 +540,18 @@
     <t>RC0402FR-072KL</t>
   </si>
   <si>
+    <t>33R</t>
+  </si>
+  <si>
+    <t>RES SMD 33 OHM 5% 0.4W 0805</t>
+  </si>
+  <si>
+    <t>R52</t>
+  </si>
+  <si>
+    <t>ESR10EZPJ330</t>
+  </si>
+  <si>
     <t>PTS645SM43SMTR92LFS</t>
   </si>
   <si>
@@ -660,7 +672,7 @@
     <t>QFN16-EP</t>
   </si>
   <si>
-    <t>STWD100NYWY3F</t>
+    <t>STWD100YNYWY3F</t>
   </si>
   <si>
     <t>IC WATCHDOG TIME CIRCUIT SOT23-5</t>
@@ -1139,8 +1151,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FC4FB1-D1AD-48E4-90DE-AB4E24ABAB35}">
-  <dimension ref="A1:G58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DBCEA7-96A7-4BAD-9A7B-D8A37D28C47A}">
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1694,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>0.99</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2076,16 +2088,16 @@
         <v>173</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="F41" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41" s="3">
-        <v>0.32</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2105,10 +2117,10 @@
         <v>175</v>
       </c>
       <c r="F42" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G42" s="3">
-        <v>3.76</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2128,10 +2140,10 @@
         <v>179</v>
       </c>
       <c r="F43" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G43" s="3">
-        <v>2.88</v>
+        <v>3.76</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2151,10 +2163,10 @@
         <v>183</v>
       </c>
       <c r="F44" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" s="3">
-        <v>1.54</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2174,10 +2186,10 @@
         <v>187</v>
       </c>
       <c r="F45" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" s="3">
-        <v>0.11</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2200,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="3">
-        <v>24.99</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2223,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="3">
-        <v>2.0099999999999998</v>
+        <v>24.99</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2245,7 +2257,9 @@
       <c r="F48" s="3">
         <v>1</v>
       </c>
-      <c r="G48" s="3"/>
+      <c r="G48" s="3">
+        <v>2.0099999999999998</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
@@ -2266,9 +2280,7 @@
       <c r="F49" s="3">
         <v>1</v>
       </c>
-      <c r="G49" s="3">
-        <v>0.7</v>
-      </c>
+      <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
@@ -2290,7 +2302,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="3">
-        <v>2.04</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2313,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="3">
-        <v>0.85</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2330,34 +2342,36 @@
         <v>218</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F52" s="3">
-        <v>2</v>
-      </c>
-      <c r="G52" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0.94</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="F53" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" s="3">
-        <v>0.79</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2380,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="3">
-        <v>1.1299999999999999</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2403,7 +2417,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="3">
-        <v>2.9</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2426,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="3">
-        <v>0.42</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2449,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="3">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2463,15 +2477,38 @@
         <v>242</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="E59" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F59" s="3">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G59" s="3">
         <v>2.04</v>
       </c>
     </row>
